--- a/test.xlsx
+++ b/test.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghuin\Personal Projects\Boulder Bash\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC52E9D7-2A64-4F78-BDC9-26DBFDDE7406}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="1" r:id="rId1"/>
@@ -12,12 +18,12 @@
     <sheet name="Scores" sheetId="3" r:id="rId3"/>
     <sheet name="LeaderBoard" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>First Name</t>
   </si>
@@ -37,14 +43,32 @@
     <t>Scores</t>
   </si>
   <si>
+    <t>Gabe</t>
+  </si>
+  <si>
+    <t>Huinker</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Advanced</t>
+  </si>
+  <si>
     <t>Climber</t>
   </si>
+  <si>
+    <t>Gabe Huinker</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +105,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -127,7 +159,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -159,9 +191,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -193,6 +243,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -368,14 +436,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -393,6 +461,35 @@
       </c>
       <c r="H1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -401,42 +498,78 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghuin\Personal Projects\Boulder Bash\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC52E9D7-2A64-4F78-BDC9-26DBFDDE7406}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="1" r:id="rId1"/>
@@ -18,12 +12,12 @@
     <sheet name="Scores" sheetId="3" r:id="rId3"/>
     <sheet name="LeaderBoard" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>First Name</t>
   </si>
@@ -55,20 +49,35 @@
     <t>Advanced</t>
   </si>
   <si>
+    <t>Lydia</t>
+  </si>
+  <si>
+    <t>Heydlauff</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
     <t>Climber</t>
   </si>
   <si>
     <t>Gabe Huinker</t>
   </si>
   <si>
+    <t>Lydia Heydlauff</t>
+  </si>
+  <si>
     <t>Score</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,14 +114,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -159,7 +160,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -191,27 +192,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -243,24 +226,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -436,60 +401,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -497,30 +516,45 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B2"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -528,48 +562,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -448,13 +448,13 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -473,6 +473,18 @@
       <c r="E3">
         <v>0</v>
       </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>200</v>
+      </c>
+      <c r="I3">
+        <v>190</v>
+      </c>
+      <c r="J3">
+        <v>180</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -480,43 +492,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -528,11 +503,11 @@
       <c r="A1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
-        <v>17</v>
+      <c r="B1">
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -540,10 +515,10 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -554,7 +529,56 @@
         <v>2</v>
       </c>
       <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>80</v>
+      </c>
+      <c r="C2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>90</v>
+      </c>
+      <c r="C3">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghuin\Personal Projects\Boulder Bash\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC52E9D7-2A64-4F78-BDC9-26DBFDDE7406}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="1" r:id="rId1"/>
@@ -18,7 +12,7 @@
     <sheet name="Scores" sheetId="3" r:id="rId3"/>
     <sheet name="LeaderBoard" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -67,8 +61,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,14 +99,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -159,7 +145,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -191,27 +177,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -243,24 +211,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -436,14 +386,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -463,7 +413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -498,16 +448,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -515,12 +463,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -529,14 +477,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -547,15 +495,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -564,12 +509,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="1" r:id="rId1"/>
-    <sheet name="Attempts" sheetId="2" r:id="rId2"/>
+    <sheet name="Send Attempt" sheetId="2" r:id="rId2"/>
     <sheet name="Scores" sheetId="3" r:id="rId3"/>
     <sheet name="LeaderBoard" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -515,21 +515,21 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B3">
-        <v>2</v>
+      <c r="B3" t="b">
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -564,10 +564,10 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>80</v>
-      </c>
-      <c r="C2">
-        <v>80</v>
+        <v>200</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -575,10 +575,13 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -515,17 +515,17 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="b">
+      <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
@@ -564,10 +564,13 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>200</v>
+        <v>290</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
       </c>
       <c r="D2">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:4">

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,16 +8,18 @@
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="1" r:id="rId1"/>
-    <sheet name="Send Attempt" sheetId="2" r:id="rId2"/>
-    <sheet name="Scores" sheetId="3" r:id="rId3"/>
-    <sheet name="LeaderBoard" sheetId="4" r:id="rId4"/>
+    <sheet name="Scores" sheetId="2" r:id="rId2"/>
+    <sheet name="Sends" sheetId="3" r:id="rId3"/>
+    <sheet name="Attempts Heat 1" sheetId="4" r:id="rId4"/>
+    <sheet name="Attempts Heat 2" sheetId="5" r:id="rId5"/>
+    <sheet name="Attempts Heat 3" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>First Name</t>
   </si>
@@ -31,6 +33,9 @@
     <t>Level</t>
   </si>
   <si>
+    <t>Heats</t>
+  </si>
+  <si>
     <t>Route</t>
   </si>
   <si>
@@ -64,13 +69,13 @@
     <t>Climber</t>
   </si>
   <si>
+    <t>Score</t>
+  </si>
+  <si>
     <t>Gabe Huinker</t>
   </si>
   <si>
     <t>Lydia Heydlauff</t>
-  </si>
-  <si>
-    <t>Score</t>
   </si>
 </sst>
 </file>
@@ -421,29 +426,35 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
       <c r="G2">
         <v>1</v>
       </c>
@@ -459,16 +470,16 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -492,52 +503,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -547,10 +512,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -561,30 +526,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D2">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D3">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -592,14 +557,174 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -635,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
